--- a/TDP-Jarvis-APIS/target/classes/services/excel/ServicioJ.xlsx
+++ b/TDP-Jarvis-APIS/target/classes/services/excel/ServicioJ.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="2760"/>
+    <workbookView windowHeight="2760" windowWidth="14670" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,55 +19,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="49">
+  <si>
+    <t>TC1</t>
+  </si>
   <si>
     <t>Endpoint</t>
   </si>
   <si>
+    <t>Response</t>
+  </si>
+  <si>
     <t>https://api.us-east.apiconnect.ibmcloud.com/telefonica-del-peru-development/ter/ws-offersEngine/v2/requestOffers</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Val_Valor1</t>
-  </si>
-  <si>
-    <t>Val_Valor2</t>
-  </si>
-  <si>
-    <t>Val_Valor3</t>
-  </si>
-  <si>
-    <t>Val_Valor4</t>
-  </si>
-  <si>
-    <t>Val_Valor5</t>
-  </si>
-  <si>
-    <t>Val_Valor6</t>
-  </si>
-  <si>
-    <t>Val_Valor7</t>
-  </si>
-  <si>
-    <t>Val_Valor8</t>
-  </si>
-  <si>
-    <t>Val_Valor9</t>
-  </si>
-  <si>
-    <t>Val_General</t>
-  </si>
-  <si>
-    <t>TC</t>
+    <t>Valor1</t>
+  </si>
+  <si>
+    <t>Valor2</t>
+  </si>
+  <si>
+    <t>Valor3</t>
+  </si>
+  <si>
+    <t>Valor4</t>
+  </si>
+  <si>
+    <t>Valor5</t>
+  </si>
+  <si>
+    <t>Valor6</t>
+  </si>
+  <si>
+    <t>Valor7</t>
+  </si>
+  <si>
+    <t>Valor8</t>
+  </si>
+  <si>
+    <t>Valor9</t>
+  </si>
+  <si>
+    <t>Resultado Ejecucion</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:28:57.373-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>23322: true0</t>
+  </si>
+  <si>
+    <t>Movistar Total 13GB TV Estándar Digital HD 200Mbps: true1</t>
+  </si>
+  <si>
+    <t>175.0: true2</t>
+  </si>
+  <si>
+    <t>30000: true3</t>
+  </si>
+  <si>
+    <t>43.0: true4</t>
+  </si>
+  <si>
+    <t>13000: true5</t>
+  </si>
+  <si>
+    <t>132.0: true6</t>
+  </si>
+  <si>
+    <t>43.0: true7</t>
+  </si>
+  <si>
+    <t>De alta velocidad para compartir PasaGigas y usar en America y Europa.: true8</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:28:59.484-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:29:59.18-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Movistar Total 13GB mari TV Estándar Digital HD 200Mbps: false1</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:30:01.484-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:32:50.25-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:32:52.756-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-19T03:34:04.221-05:00","msgType":"ERROR"},"ServerException":{"exceptionCategory":"SRV","exceptionCode":4002,"exceptionMsg":"Service Unavailable","exceptionDetail":"Hubo un problema en el lado del servidor. No puede procesar la solicitud debido a una sobrecarga temporal o mantenimiento del servidor.","exceptionSeverity":"E"}}</t>
+  </si>
+  <si>
+    <t>23322: false0</t>
+  </si>
+  <si>
+    <t>Movistar Total mari 13GB TV Estándar Digital HD 200Mbps: false1</t>
+  </si>
+  <si>
+    <t>175.0: false2</t>
+  </si>
+  <si>
+    <t>30000: false3</t>
+  </si>
+  <si>
+    <t>43.0: false4</t>
+  </si>
+  <si>
+    <t>13000: false5</t>
+  </si>
+  <si>
+    <t>132.0: false6</t>
+  </si>
+  <si>
+    <t>43.0: false7</t>
+  </si>
+  <si>
+    <t>De alta velocidad para compartir PasaGigas y usar en America y Europa.: false8</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:34:49.334-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:35:40.114-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:35:42.894-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:36:17.505-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:36:20.145-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:51:46.124-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:51:49.063-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="157" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,18 +191,2239 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="323">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,26 +2435,187 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="161">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="322" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -144,10 +2632,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -182,7 +2670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -217,7 +2705,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -311,21 +2799,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -342,7 +2830,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -394,74 +2882,75 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C2" sqref="C2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="109.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="69.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="49.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -473,104 +2962,127 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
+    <row customFormat="1" customHeight="1" ht="12.75" r="2" s="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="R2"/>
+      <c r="C2" s="150" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s" s="160">
+        <v>24</v>
+      </c>
+      <c r="M2" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="S2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3"/>
+      <c r="C3"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="5" s="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row customFormat="1" r="6" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="12" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="13" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="14" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="15" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="16" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="17" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="18" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="19" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="20" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="21" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="22" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="23" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="24" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="25" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="26" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="27" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="28" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="29" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="30" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="31" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="32" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="33" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="34" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="35" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="36" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="37" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="38" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="39" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="40" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="41" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="42" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="43" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="44" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="45" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="46" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="47" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="48" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="49" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="50" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="51" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="52" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="53" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="54" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="55" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="56" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="57" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="58" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="59" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="60" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="61" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="62" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="63" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="64" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="65" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="66" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="67" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="68" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="69" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="70" s="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="71" s="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>